--- a/php program List.xlsx
+++ b/php program List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>S.No</t>
   </si>
@@ -99,6 +99,36 @@
   </si>
   <si>
     <t>Querying Data From Database Using Ajax</t>
+  </si>
+  <si>
+    <t>Animate</t>
+  </si>
+  <si>
+    <t>Display Date and Time from Server</t>
+  </si>
+  <si>
+    <t>Display Comment Using Jquery</t>
+  </si>
+  <si>
+    <t>Add, Delete, Modify In HTML Table</t>
+  </si>
+  <si>
+    <t>Add,Edit, Delete Using Jquery,Ajax,Php &amp; Mysql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -160,12 +190,14 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,278 +478,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/php program List.xlsx
+++ b/php program List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>S.No</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +203,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,19 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +516,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -511,8 +530,11 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -522,8 +544,11 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -533,8 +558,11 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -544,8 +572,11 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -555,8 +586,11 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -566,8 +600,11 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -577,8 +614,11 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -588,8 +628,11 @@
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -599,8 +642,11 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -610,8 +656,11 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -621,8 +670,11 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -632,8 +684,11 @@
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -643,8 +698,9 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -654,8 +710,11 @@
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -665,8 +724,11 @@
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -676,8 +738,9 @@
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -687,8 +750,9 @@
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -698,8 +762,11 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -709,8 +776,11 @@
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -720,8 +790,9 @@
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -731,8 +802,9 @@
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -742,8 +814,11 @@
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -753,8 +828,11 @@
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -764,8 +842,11 @@
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -775,8 +856,11 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -786,8 +870,11 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -797,8 +884,11 @@
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -808,84 +898,97 @@
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
+      <c r="D41" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/php program List.xlsx
+++ b/php program List.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$38</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>S.No</t>
   </si>
@@ -47,9 +50,6 @@
     <t>Arm Strong or not</t>
   </si>
   <si>
-    <t>Generation of ArmStrong Numbers ]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Product of Prime </t>
   </si>
   <si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Generation of ArmStrong Numbers</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,11 +195,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +227,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,226 +525,238 @@
     <col min="4" max="4" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,10 +764,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -745,10 +776,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -757,13 +788,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +802,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,10 +816,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -797,10 +828,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -809,13 +840,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,13 +854,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,13 +868,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,13 +882,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,13 +896,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,13 +910,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,10 +924,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="5"/>
     </row>
